--- a/Set2_CPI_fix.xlsx
+++ b/Set2_CPI_fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study2023\ThucHanhPTDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEE2549-DA82-4BDD-9E21-29CFA9467143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA9B87C-DE56-4BA5-A43E-51C95AC2216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="202">
   <si>
     <t>BL1</t>
   </si>
@@ -34637,12 +34637,15 @@
   <dimension ref="A1:DB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>134</v>
       </c>
